--- a/data/LSTM_Actual_Pred_TN.xlsx
+++ b/data/LSTM_Actual_Pred_TN.xlsx
@@ -500,37 +500,37 @@
         <v>7.8</v>
       </c>
       <c r="B2" t="n">
-        <v>7.017335414886475</v>
+        <v>7.47086763381958</v>
       </c>
       <c r="C2" t="n">
         <v>7.5</v>
       </c>
       <c r="D2" t="n">
-        <v>7.552376747131348</v>
+        <v>6.874066829681396</v>
       </c>
       <c r="E2" t="n">
         <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>6.503209590911865</v>
+        <v>6.439445495605469</v>
       </c>
       <c r="G2" t="n">
         <v>6.5</v>
       </c>
       <c r="H2" t="n">
-        <v>6.502865791320801</v>
+        <v>6.856260776519775</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>5.4106764793396</v>
+        <v>4.709311962127686</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>5.963892936706543</v>
+        <v>5.684148788452148</v>
       </c>
     </row>
     <row r="3">
@@ -538,37 +538,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>7.421566486358643</v>
+        <v>8.163686752319336</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>7.418585777282715</v>
+        <v>7.154438495635986</v>
       </c>
       <c r="E3" t="n">
         <v>7.75</v>
       </c>
       <c r="F3" t="n">
-        <v>7.065183639526367</v>
+        <v>7.169380187988281</v>
       </c>
       <c r="G3" t="n">
         <v>8.75</v>
       </c>
       <c r="H3" t="n">
-        <v>7.138262748718262</v>
+        <v>7.617014408111572</v>
       </c>
       <c r="I3" t="n">
         <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>5.913280963897705</v>
+        <v>5.27050256729126</v>
       </c>
       <c r="K3" t="n">
         <v>7.6</v>
       </c>
       <c r="L3" t="n">
-        <v>6.924314975738525</v>
+        <v>6.012582778930664</v>
       </c>
     </row>
     <row r="4">
@@ -576,37 +576,37 @@
         <v>8.6</v>
       </c>
       <c r="B4" t="n">
-        <v>7.596512317657471</v>
+        <v>8.051456451416016</v>
       </c>
       <c r="C4" t="n">
         <v>8.75</v>
       </c>
       <c r="D4" t="n">
-        <v>7.717995643615723</v>
+        <v>7.001540660858154</v>
       </c>
       <c r="E4" t="n">
         <v>5.5</v>
       </c>
       <c r="F4" t="n">
-        <v>7.026505470275879</v>
+        <v>6.663507461547852</v>
       </c>
       <c r="G4" t="n">
         <v>8.75</v>
       </c>
       <c r="H4" t="n">
-        <v>7.219271183013916</v>
+        <v>7.449251174926758</v>
       </c>
       <c r="I4" t="n">
         <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>6.33915901184082</v>
+        <v>6.162642955780029</v>
       </c>
       <c r="K4" t="n">
         <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>6.874553680419922</v>
+        <v>6.38532543182373</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +614,37 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>6.845650196075439</v>
+        <v>6.937328338623047</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>7.374940395355225</v>
+        <v>6.893825054168701</v>
       </c>
       <c r="E5" t="n">
         <v>5.5</v>
       </c>
       <c r="F5" t="n">
-        <v>6.438529968261719</v>
+        <v>5.490668296813965</v>
       </c>
       <c r="G5" t="n">
         <v>6.25</v>
       </c>
       <c r="H5" t="n">
-        <v>6.420235633850098</v>
+        <v>6.557094097137451</v>
       </c>
       <c r="I5" t="n">
         <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>5.199944496154785</v>
+        <v>4.756118297576904</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>5.926887512207031</v>
+        <v>5.262788772583008</v>
       </c>
     </row>
     <row r="6">
@@ -652,37 +652,37 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="n">
-        <v>6.909853458404541</v>
+        <v>7.428953647613525</v>
       </c>
       <c r="C6" t="n">
         <v>6.5</v>
       </c>
       <c r="D6" t="n">
-        <v>7.575182914733887</v>
+        <v>7.08682107925415</v>
       </c>
       <c r="E6" t="n">
         <v>5.75</v>
       </c>
       <c r="F6" t="n">
-        <v>6.521280288696289</v>
+        <v>6.104562759399414</v>
       </c>
       <c r="G6" t="n">
         <v>6.25</v>
       </c>
       <c r="H6" t="n">
-        <v>6.371474266052246</v>
+        <v>6.653888702392578</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>5.174046516418457</v>
+        <v>4.73939847946167</v>
       </c>
       <c r="K6" t="n">
         <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>5.95814323425293</v>
+        <v>5.076407909393311</v>
       </c>
     </row>
     <row r="7">
@@ -690,37 +690,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>6.618856430053711</v>
+        <v>6.89729118347168</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>7.643314361572266</v>
+        <v>6.874671459197998</v>
       </c>
       <c r="E7" t="n">
         <v>7.25</v>
       </c>
       <c r="F7" t="n">
-        <v>6.156711101531982</v>
+        <v>5.167336940765381</v>
       </c>
       <c r="G7" t="n">
         <v>7.75</v>
       </c>
       <c r="H7" t="n">
-        <v>5.933229923248291</v>
+        <v>5.854881286621094</v>
       </c>
       <c r="I7" t="n">
         <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.863709926605225</v>
+        <v>4.248826503753662</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>5.069090366363525</v>
+        <v>4.442036628723145</v>
       </c>
     </row>
     <row r="8">
@@ -728,37 +728,37 @@
         <v>7.4</v>
       </c>
       <c r="B8" t="n">
-        <v>7.15455961227417</v>
+        <v>7.927778720855713</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>7.775142192840576</v>
+        <v>7.318855762481689</v>
       </c>
       <c r="E8" t="n">
         <v>6.5</v>
       </c>
       <c r="F8" t="n">
-        <v>6.643997192382812</v>
+        <v>7.045222759246826</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>6.670615673065186</v>
+        <v>7.29020881652832</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>5.664031505584717</v>
+        <v>4.63810396194458</v>
       </c>
       <c r="K8" t="n">
         <v>7.8</v>
       </c>
       <c r="L8" t="n">
-        <v>6.611859798431396</v>
+        <v>6.127086639404297</v>
       </c>
     </row>
     <row r="9">
@@ -766,37 +766,37 @@
         <v>6.4</v>
       </c>
       <c r="B9" t="n">
-        <v>6.311599254608154</v>
+        <v>6.582281112670898</v>
       </c>
       <c r="C9" t="n">
         <v>6.25</v>
       </c>
       <c r="D9" t="n">
-        <v>7.265882015228271</v>
+        <v>6.670324802398682</v>
       </c>
       <c r="E9" t="n">
         <v>4.75</v>
       </c>
       <c r="F9" t="n">
-        <v>5.920291423797607</v>
+        <v>4.935073375701904</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>5.647947311401367</v>
+        <v>5.760617256164551</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.551589488983154</v>
+        <v>3.9692223072052</v>
       </c>
       <c r="K9" t="n">
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>5.327092170715332</v>
+        <v>4.789995193481445</v>
       </c>
     </row>
     <row r="10">
@@ -804,37 +804,37 @@
         <v>7.6</v>
       </c>
       <c r="B10" t="n">
-        <v>7.806432723999023</v>
+        <v>8.167893409729004</v>
       </c>
       <c r="C10" t="n">
         <v>7.5</v>
       </c>
       <c r="D10" t="n">
-        <v>7.631973743438721</v>
+        <v>7.179366111755371</v>
       </c>
       <c r="E10" t="n">
         <v>5.75</v>
       </c>
       <c r="F10" t="n">
-        <v>7.298837661743164</v>
+        <v>6.776599884033203</v>
       </c>
       <c r="G10" t="n">
         <v>8.75</v>
       </c>
       <c r="H10" t="n">
-        <v>7.664129734039307</v>
+        <v>7.803391933441162</v>
       </c>
       <c r="I10" t="n">
         <v>9.25</v>
       </c>
       <c r="J10" t="n">
-        <v>6.678496837615967</v>
+        <v>6.678578853607178</v>
       </c>
       <c r="K10" t="n">
         <v>6.4</v>
       </c>
       <c r="L10" t="n">
-        <v>7.137810707092285</v>
+        <v>6.846604824066162</v>
       </c>
     </row>
     <row r="11">
@@ -842,37 +842,37 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>7.007047176361084</v>
+        <v>7.427693367004395</v>
       </c>
       <c r="C11" t="n">
         <v>6.75</v>
       </c>
       <c r="D11" t="n">
-        <v>7.392163276672363</v>
+        <v>6.885190963745117</v>
       </c>
       <c r="E11" t="n">
         <v>7.75</v>
       </c>
       <c r="F11" t="n">
-        <v>6.589597702026367</v>
+        <v>6.554356098175049</v>
       </c>
       <c r="G11" t="n">
         <v>7.25</v>
       </c>
       <c r="H11" t="n">
-        <v>6.408369541168213</v>
+        <v>6.670352458953857</v>
       </c>
       <c r="I11" t="n">
         <v>6.5</v>
       </c>
       <c r="J11" t="n">
-        <v>5.317038059234619</v>
+        <v>4.516287326812744</v>
       </c>
       <c r="K11" t="n">
         <v>7.8</v>
       </c>
       <c r="L11" t="n">
-        <v>7.840032577514648</v>
+        <v>7.39923095703125</v>
       </c>
     </row>
     <row r="12">
@@ -880,37 +880,37 @@
         <v>7.8</v>
       </c>
       <c r="B12" t="n">
-        <v>7.433390140533447</v>
+        <v>7.796838760375977</v>
       </c>
       <c r="C12" t="n">
         <v>8.5</v>
       </c>
       <c r="D12" t="n">
-        <v>8.250289916992188</v>
+        <v>7.918933391571045</v>
       </c>
       <c r="E12" t="n">
         <v>7.5</v>
       </c>
       <c r="F12" t="n">
-        <v>7.001683712005615</v>
+        <v>6.626201629638672</v>
       </c>
       <c r="G12" t="n">
         <v>8.5</v>
       </c>
       <c r="H12" t="n">
-        <v>6.878561973571777</v>
+        <v>7.223772525787354</v>
       </c>
       <c r="I12" t="n">
         <v>6.25</v>
       </c>
       <c r="J12" t="n">
-        <v>6.00019359588623</v>
+        <v>6.013787746429443</v>
       </c>
       <c r="K12" t="n">
         <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>6.348803043365479</v>
+        <v>5.638765811920166</v>
       </c>
     </row>
     <row r="13">
@@ -918,37 +918,37 @@
         <v>8.6</v>
       </c>
       <c r="B13" t="n">
-        <v>7.543187618255615</v>
+        <v>8.210800170898438</v>
       </c>
       <c r="C13" t="n">
         <v>8.5</v>
       </c>
       <c r="D13" t="n">
-        <v>8.398646354675293</v>
+        <v>7.990981101989746</v>
       </c>
       <c r="E13" t="n">
         <v>8.75</v>
       </c>
       <c r="F13" t="n">
-        <v>7.160992622375488</v>
+        <v>7.335238456726074</v>
       </c>
       <c r="G13" t="n">
         <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>6.875344276428223</v>
+        <v>7.389788627624512</v>
       </c>
       <c r="I13" t="n">
         <v>6.25</v>
       </c>
       <c r="J13" t="n">
-        <v>5.96766185760498</v>
+        <v>5.113366603851318</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>6.494979381561279</v>
+        <v>5.597140312194824</v>
       </c>
     </row>
     <row r="14">
@@ -956,37 +956,37 @@
         <v>7.8</v>
       </c>
       <c r="B14" t="n">
-        <v>7.399664402008057</v>
+        <v>7.792764186859131</v>
       </c>
       <c r="C14" t="n">
         <v>8.25</v>
       </c>
       <c r="D14" t="n">
-        <v>7.89311695098877</v>
+        <v>7.128057956695557</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>6.919168472290039</v>
+        <v>6.478930473327637</v>
       </c>
       <c r="G14" t="n">
         <v>8.5</v>
       </c>
       <c r="H14" t="n">
-        <v>6.924299716949463</v>
+        <v>7.25791072845459</v>
       </c>
       <c r="I14" t="n">
         <v>5.75</v>
       </c>
       <c r="J14" t="n">
-        <v>6.002974033355713</v>
+        <v>5.982015609741211</v>
       </c>
       <c r="K14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>6.93582010269165</v>
+        <v>6.373027324676514</v>
       </c>
     </row>
     <row r="15">
@@ -994,37 +994,37 @@
         <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>7.576230049133301</v>
+        <v>7.983171939849854</v>
       </c>
       <c r="C15" t="n">
         <v>8.75</v>
       </c>
       <c r="D15" t="n">
-        <v>8.269556045532227</v>
+        <v>7.927110195159912</v>
       </c>
       <c r="E15" t="n">
         <v>7.5</v>
       </c>
       <c r="F15" t="n">
-        <v>7.159443855285645</v>
+        <v>7.005264759063721</v>
       </c>
       <c r="G15" t="n">
         <v>6.75</v>
       </c>
       <c r="H15" t="n">
-        <v>7.036581039428711</v>
+        <v>7.346334457397461</v>
       </c>
       <c r="I15" t="n">
         <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>6.090418815612793</v>
+        <v>5.503777027130127</v>
       </c>
       <c r="K15" t="n">
         <v>6.2</v>
       </c>
       <c r="L15" t="n">
-        <v>6.353914260864258</v>
+        <v>5.602215766906738</v>
       </c>
     </row>
     <row r="16">
@@ -1032,37 +1032,37 @@
         <v>7.6</v>
       </c>
       <c r="B16" t="n">
-        <v>7.124737739562988</v>
+        <v>7.66686487197876</v>
       </c>
       <c r="C16" t="n">
         <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>7.717433929443359</v>
+        <v>7.075197219848633</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>6.716078758239746</v>
+        <v>6.777567863464355</v>
       </c>
       <c r="G16" t="n">
         <v>7.25</v>
       </c>
       <c r="H16" t="n">
-        <v>6.524136543273926</v>
+        <v>6.995403289794922</v>
       </c>
       <c r="I16" t="n">
         <v>4.25</v>
       </c>
       <c r="J16" t="n">
-        <v>5.549804210662842</v>
+        <v>4.843403339385986</v>
       </c>
       <c r="K16" t="n">
         <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>7.779166698455811</v>
+        <v>7.263015747070312</v>
       </c>
     </row>
     <row r="17">
@@ -1070,37 +1070,37 @@
         <v>7.4</v>
       </c>
       <c r="B17" t="n">
-        <v>6.748123168945312</v>
+        <v>7.317229747772217</v>
       </c>
       <c r="C17" t="n">
         <v>8.5</v>
       </c>
       <c r="D17" t="n">
-        <v>7.696621894836426</v>
+        <v>7.642148494720459</v>
       </c>
       <c r="E17" t="n">
         <v>6.25</v>
       </c>
       <c r="F17" t="n">
-        <v>6.277107238769531</v>
+        <v>5.819735527038574</v>
       </c>
       <c r="G17" t="n">
         <v>7.25</v>
       </c>
       <c r="H17" t="n">
-        <v>6.098917007446289</v>
+        <v>6.64349365234375</v>
       </c>
       <c r="I17" t="n">
         <v>6.5</v>
       </c>
       <c r="J17" t="n">
-        <v>5.114030361175537</v>
+        <v>4.674530029296875</v>
       </c>
       <c r="K17" t="n">
         <v>6.8</v>
       </c>
       <c r="L17" t="n">
-        <v>5.733522891998291</v>
+        <v>5.178330898284912</v>
       </c>
     </row>
     <row r="18">
@@ -1108,37 +1108,37 @@
         <v>7.8</v>
       </c>
       <c r="B18" t="n">
-        <v>7.236024379730225</v>
+        <v>7.398324012756348</v>
       </c>
       <c r="C18" t="n">
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>7.703895568847656</v>
+        <v>7.252796649932861</v>
       </c>
       <c r="E18" t="n">
         <v>6.5</v>
       </c>
       <c r="F18" t="n">
-        <v>6.660813808441162</v>
+        <v>6.012967109680176</v>
       </c>
       <c r="G18" t="n">
         <v>8.25</v>
       </c>
       <c r="H18" t="n">
-        <v>6.692903518676758</v>
+        <v>6.790703773498535</v>
       </c>
       <c r="I18" t="n">
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>5.782126903533936</v>
+        <v>5.755001544952393</v>
       </c>
       <c r="K18" t="n">
         <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>7.069055557250977</v>
+        <v>6.771960258483887</v>
       </c>
     </row>
     <row r="19">
@@ -1146,37 +1146,37 @@
         <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>7.154913425445557</v>
+        <v>7.522325992584229</v>
       </c>
       <c r="C19" t="n">
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>7.864980220794678</v>
+        <v>7.375320911407471</v>
       </c>
       <c r="E19" t="n">
         <v>6.75</v>
       </c>
       <c r="F19" t="n">
-        <v>6.873721122741699</v>
+        <v>6.598684310913086</v>
       </c>
       <c r="G19" t="n">
         <v>5.25</v>
       </c>
       <c r="H19" t="n">
-        <v>6.51108980178833</v>
+        <v>6.755066394805908</v>
       </c>
       <c r="I19" t="n">
         <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>5.371184825897217</v>
+        <v>4.846784591674805</v>
       </c>
       <c r="K19" t="n">
         <v>5.6</v>
       </c>
       <c r="L19" t="n">
-        <v>6.588852405548096</v>
+        <v>5.997751235961914</v>
       </c>
     </row>
     <row r="20">
@@ -1184,37 +1184,37 @@
         <v>7.6</v>
       </c>
       <c r="B20" t="n">
-        <v>8.005434989929199</v>
+        <v>8.508449554443359</v>
       </c>
       <c r="C20" t="n">
         <v>8.75</v>
       </c>
       <c r="D20" t="n">
-        <v>8.011087417602539</v>
+        <v>7.555001735687256</v>
       </c>
       <c r="E20" t="n">
         <v>8.25</v>
       </c>
       <c r="F20" t="n">
-        <v>7.812868118286133</v>
+        <v>7.724048137664795</v>
       </c>
       <c r="G20" t="n">
         <v>8.25</v>
       </c>
       <c r="H20" t="n">
-        <v>7.639870643615723</v>
+        <v>8.000906944274902</v>
       </c>
       <c r="I20" t="n">
         <v>6.75</v>
       </c>
       <c r="J20" t="n">
-        <v>6.689574241638184</v>
+        <v>5.762430667877197</v>
       </c>
       <c r="K20" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>8.378841400146484</v>
+        <v>7.387633323669434</v>
       </c>
     </row>
     <row r="21">
@@ -1222,37 +1222,37 @@
         <v>6.8</v>
       </c>
       <c r="B21" t="n">
-        <v>6.992057800292969</v>
+        <v>7.513181209564209</v>
       </c>
       <c r="C21" t="n">
         <v>8.75</v>
       </c>
       <c r="D21" t="n">
-        <v>8.134465217590332</v>
+        <v>7.581302642822266</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>6.414859294891357</v>
+        <v>5.994894504547119</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>6.339503288269043</v>
+        <v>6.740391731262207</v>
       </c>
       <c r="I21" t="n">
         <v>5.25</v>
       </c>
       <c r="J21" t="n">
-        <v>5.417912483215332</v>
+        <v>4.699885845184326</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>5.119856357574463</v>
+        <v>5.243282318115234</v>
       </c>
     </row>
     <row r="22">
@@ -1260,37 +1260,37 @@
         <v>7.8</v>
       </c>
       <c r="B22" t="n">
-        <v>7.471266746520996</v>
+        <v>7.995851993560791</v>
       </c>
       <c r="C22" t="n">
         <v>8.25</v>
       </c>
       <c r="D22" t="n">
-        <v>7.941195487976074</v>
+        <v>7.147819042205811</v>
       </c>
       <c r="E22" t="n">
         <v>4.75</v>
       </c>
       <c r="F22" t="n">
-        <v>6.989467144012451</v>
+        <v>6.777787685394287</v>
       </c>
       <c r="G22" t="n">
         <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>7.09206485748291</v>
+        <v>7.417803764343262</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>6.19187593460083</v>
+        <v>5.96380090713501</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>6.979783058166504</v>
+        <v>7.000676155090332</v>
       </c>
     </row>
     <row r="23">
@@ -1298,37 +1298,37 @@
         <v>8.6</v>
       </c>
       <c r="B23" t="n">
-        <v>7.880900382995605</v>
+        <v>8.466668128967285</v>
       </c>
       <c r="C23" t="n">
         <v>7.75</v>
       </c>
       <c r="D23" t="n">
-        <v>8.437917709350586</v>
+        <v>8.192058563232422</v>
       </c>
       <c r="E23" t="n">
         <v>7.25</v>
       </c>
       <c r="F23" t="n">
-        <v>7.409533977508545</v>
+        <v>7.642704963684082</v>
       </c>
       <c r="G23" t="n">
         <v>7.75</v>
       </c>
       <c r="H23" t="n">
-        <v>7.426705360412598</v>
+        <v>7.653449535369873</v>
       </c>
       <c r="I23" t="n">
         <v>6.25</v>
       </c>
       <c r="J23" t="n">
-        <v>6.495116710662842</v>
+        <v>5.350515365600586</v>
       </c>
       <c r="K23" t="n">
         <v>4.8</v>
       </c>
       <c r="L23" t="n">
-        <v>6.116374969482422</v>
+        <v>5.490033149719238</v>
       </c>
     </row>
     <row r="24">
@@ -1336,37 +1336,37 @@
         <v>7.8</v>
       </c>
       <c r="B24" t="n">
-        <v>6.964189052581787</v>
+        <v>7.346930980682373</v>
       </c>
       <c r="C24" t="n">
         <v>6.75</v>
       </c>
       <c r="D24" t="n">
-        <v>7.790065288543701</v>
+        <v>7.371703624725342</v>
       </c>
       <c r="E24" t="n">
         <v>7.25</v>
       </c>
       <c r="F24" t="n">
-        <v>6.305502891540527</v>
+        <v>6.097207069396973</v>
       </c>
       <c r="G24" t="n">
         <v>6.75</v>
       </c>
       <c r="H24" t="n">
-        <v>6.39624547958374</v>
+        <v>6.845163822174072</v>
       </c>
       <c r="I24" t="n">
         <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>5.487226009368896</v>
+        <v>5.018463611602783</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>5.210359573364258</v>
+        <v>4.899500846862793</v>
       </c>
     </row>
     <row r="25">
@@ -1374,37 +1374,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>6.62252140045166</v>
+        <v>7.380749225616455</v>
       </c>
       <c r="C25" t="n">
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>7.27232837677002</v>
+        <v>6.749911785125732</v>
       </c>
       <c r="E25" t="n">
         <v>6.5</v>
       </c>
       <c r="F25" t="n">
-        <v>6.020662307739258</v>
+        <v>5.772681713104248</v>
       </c>
       <c r="G25" t="n">
         <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>6.067569255828857</v>
+        <v>7.016166687011719</v>
       </c>
       <c r="I25" t="n">
         <v>6.25</v>
       </c>
       <c r="J25" t="n">
-        <v>5.070766925811768</v>
+        <v>5.411291599273682</v>
       </c>
       <c r="K25" t="n">
         <v>5.6</v>
       </c>
       <c r="L25" t="n">
-        <v>5.519229412078857</v>
+        <v>4.851583957672119</v>
       </c>
     </row>
     <row r="26">
@@ -1412,37 +1412,37 @@
         <v>7.4</v>
       </c>
       <c r="B26" t="n">
-        <v>6.550798416137695</v>
+        <v>7.01768159866333</v>
       </c>
       <c r="C26" t="n">
         <v>7.25</v>
       </c>
       <c r="D26" t="n">
-        <v>7.489142417907715</v>
+        <v>6.85221529006958</v>
       </c>
       <c r="E26" t="n">
         <v>6.75</v>
       </c>
       <c r="F26" t="n">
-        <v>6.09459114074707</v>
+        <v>5.402104377746582</v>
       </c>
       <c r="G26" t="n">
         <v>6.75</v>
       </c>
       <c r="H26" t="n">
-        <v>5.889738082885742</v>
+        <v>6.161467552185059</v>
       </c>
       <c r="I26" t="n">
         <v>4.25</v>
       </c>
       <c r="J26" t="n">
-        <v>4.794475078582764</v>
+        <v>4.442221164703369</v>
       </c>
       <c r="K26" t="n">
         <v>4.6</v>
       </c>
       <c r="L26" t="n">
-        <v>5.192272186279297</v>
+        <v>4.622466564178467</v>
       </c>
     </row>
     <row r="27">
@@ -1450,37 +1450,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>7.538920402526855</v>
+        <v>8.010285377502441</v>
       </c>
       <c r="C27" t="n">
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>8.905677795410156</v>
+        <v>8.606967926025391</v>
       </c>
       <c r="E27" t="n">
         <v>7.25</v>
       </c>
       <c r="F27" t="n">
-        <v>6.958417892456055</v>
+        <v>5.960823059082031</v>
       </c>
       <c r="G27" t="n">
         <v>7.5</v>
       </c>
       <c r="H27" t="n">
-        <v>6.949640274047852</v>
+        <v>7.169922828674316</v>
       </c>
       <c r="I27" t="n">
         <v>6.25</v>
       </c>
       <c r="J27" t="n">
-        <v>5.990041255950928</v>
+        <v>5.864020824432373</v>
       </c>
       <c r="K27" t="n">
         <v>5.4</v>
       </c>
       <c r="L27" t="n">
-        <v>4.608642578125</v>
+        <v>4.482544898986816</v>
       </c>
     </row>
     <row r="28">
@@ -1488,37 +1488,37 @@
         <v>8.6</v>
       </c>
       <c r="B28" t="n">
-        <v>8.045408248901367</v>
+        <v>8.515973091125488</v>
       </c>
       <c r="C28" t="n">
         <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>8.012810707092285</v>
+        <v>7.66918420791626</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>7.498050212860107</v>
+        <v>7.040867805480957</v>
       </c>
       <c r="G28" t="n">
         <v>8.75</v>
       </c>
       <c r="H28" t="n">
-        <v>7.727126598358154</v>
+        <v>8.179985046386719</v>
       </c>
       <c r="I28" t="n">
         <v>7.25</v>
       </c>
       <c r="J28" t="n">
-        <v>6.885709285736084</v>
+        <v>7.189237594604492</v>
       </c>
       <c r="K28" t="n">
         <v>7.4</v>
       </c>
       <c r="L28" t="n">
-        <v>6.937153816223145</v>
+        <v>5.947932243347168</v>
       </c>
     </row>
     <row r="29">
@@ -1526,37 +1526,37 @@
         <v>6.4</v>
       </c>
       <c r="B29" t="n">
-        <v>6.741076946258545</v>
+        <v>7.333739280700684</v>
       </c>
       <c r="C29" t="n">
         <v>7.5</v>
       </c>
       <c r="D29" t="n">
-        <v>7.495198249816895</v>
+        <v>7.427762985229492</v>
       </c>
       <c r="E29" t="n">
         <v>5.75</v>
       </c>
       <c r="F29" t="n">
-        <v>6.086038589477539</v>
+        <v>5.786116600036621</v>
       </c>
       <c r="G29" t="n">
         <v>7.5</v>
       </c>
       <c r="H29" t="n">
-        <v>6.12241792678833</v>
+        <v>6.514212608337402</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>5.107888221740723</v>
+        <v>4.728014469146729</v>
       </c>
       <c r="K29" t="n">
         <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>4.612277507781982</v>
+        <v>4.450439453125</v>
       </c>
     </row>
     <row r="30">
@@ -1564,37 +1564,37 @@
         <v>8.4</v>
       </c>
       <c r="B30" t="n">
-        <v>8.12736701965332</v>
+        <v>8.293649673461914</v>
       </c>
       <c r="C30" t="n">
         <v>7.75</v>
       </c>
       <c r="D30" t="n">
-        <v>8.569511413574219</v>
+        <v>8.222844123840332</v>
       </c>
       <c r="E30" t="n">
         <v>4.75</v>
       </c>
       <c r="F30" t="n">
-        <v>7.355649471282959</v>
+        <v>6.518852233886719</v>
       </c>
       <c r="G30" t="n">
         <v>7.25</v>
       </c>
       <c r="H30" t="n">
-        <v>7.734020233154297</v>
+        <v>7.685305118560791</v>
       </c>
       <c r="I30" t="n">
         <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>6.934068202972412</v>
+        <v>6.952371120452881</v>
       </c>
       <c r="K30" t="n">
         <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>5.159981727600098</v>
+        <v>4.609456539154053</v>
       </c>
     </row>
     <row r="31">
@@ -1602,37 +1602,37 @@
         <v>6.2</v>
       </c>
       <c r="B31" t="n">
-        <v>6.932040691375732</v>
+        <v>7.392475605010986</v>
       </c>
       <c r="C31" t="n">
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>7.461433410644531</v>
+        <v>6.733833789825439</v>
       </c>
       <c r="E31" t="n">
         <v>5.5</v>
       </c>
       <c r="F31" t="n">
-        <v>6.37904691696167</v>
+        <v>6.252872943878174</v>
       </c>
       <c r="G31" t="n">
         <v>6.5</v>
       </c>
       <c r="H31" t="n">
-        <v>6.42581844329834</v>
+        <v>6.85020923614502</v>
       </c>
       <c r="I31" t="n">
         <v>5.75</v>
       </c>
       <c r="J31" t="n">
-        <v>5.359995365142822</v>
+        <v>5.104836940765381</v>
       </c>
       <c r="K31" t="n">
         <v>5.6</v>
       </c>
       <c r="L31" t="n">
-        <v>6.46016788482666</v>
+        <v>6.140723705291748</v>
       </c>
     </row>
     <row r="32">
@@ -1640,37 +1640,37 @@
         <v>8.6</v>
       </c>
       <c r="B32" t="n">
-        <v>7.377307891845703</v>
+        <v>8.112260818481445</v>
       </c>
       <c r="C32" t="n">
         <v>7.5</v>
       </c>
       <c r="D32" t="n">
-        <v>8.267635345458984</v>
+        <v>7.644919872283936</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>7.325037002563477</v>
+        <v>7.386974811553955</v>
       </c>
       <c r="G32" t="n">
         <v>7.25</v>
       </c>
       <c r="H32" t="n">
-        <v>6.709632873535156</v>
+        <v>7.539396286010742</v>
       </c>
       <c r="I32" t="n">
         <v>6.5</v>
       </c>
       <c r="J32" t="n">
-        <v>5.632443428039551</v>
+        <v>5.11543083190918</v>
       </c>
       <c r="K32" t="n">
         <v>7.4</v>
       </c>
       <c r="L32" t="n">
-        <v>7.588829040527344</v>
+        <v>6.603957176208496</v>
       </c>
     </row>
     <row r="33">
@@ -1678,37 +1678,37 @@
         <v>9.199999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>8.533647537231445</v>
+        <v>8.863296508789062</v>
       </c>
       <c r="C33" t="n">
         <v>9.25</v>
       </c>
       <c r="D33" t="n">
-        <v>9.259977340698242</v>
+        <v>8.425434112548828</v>
       </c>
       <c r="E33" t="n">
         <v>8.75</v>
       </c>
       <c r="F33" t="n">
-        <v>8.329818725585938</v>
+        <v>8.246442794799805</v>
       </c>
       <c r="G33" t="n">
         <v>8.25</v>
       </c>
       <c r="H33" t="n">
-        <v>7.975649833679199</v>
+        <v>8.301699638366699</v>
       </c>
       <c r="I33" t="n">
         <v>7.5</v>
       </c>
       <c r="J33" t="n">
-        <v>7.563363552093506</v>
+        <v>6.409745693206787</v>
       </c>
       <c r="K33" t="n">
         <v>7.8</v>
       </c>
       <c r="L33" t="n">
-        <v>7.957594871520996</v>
+        <v>7.656247138977051</v>
       </c>
     </row>
     <row r="34">
@@ -1716,37 +1716,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>6.340681076049805</v>
+        <v>6.770586490631104</v>
       </c>
       <c r="C34" t="n">
         <v>6.5</v>
       </c>
       <c r="D34" t="n">
-        <v>7.256094932556152</v>
+        <v>6.879781723022461</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>5.685312271118164</v>
+        <v>5.216084957122803</v>
       </c>
       <c r="G34" t="n">
         <v>8.5</v>
       </c>
       <c r="H34" t="n">
-        <v>5.617133140563965</v>
+        <v>6.028234481811523</v>
       </c>
       <c r="I34" t="n">
         <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>4.688633441925049</v>
+        <v>4.565867900848389</v>
       </c>
       <c r="K34" t="n">
         <v>3.4</v>
       </c>
       <c r="L34" t="n">
-        <v>4.54587984085083</v>
+        <v>4.727926254272461</v>
       </c>
     </row>
     <row r="35">
@@ -1754,37 +1754,37 @@
         <v>8.4</v>
       </c>
       <c r="B35" t="n">
-        <v>6.59006929397583</v>
+        <v>6.930089473724365</v>
       </c>
       <c r="C35" t="n">
         <v>8.5</v>
       </c>
       <c r="D35" t="n">
-        <v>7.615246295928955</v>
+        <v>7.406124114990234</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
       </c>
       <c r="F35" t="n">
-        <v>6.015805721282959</v>
+        <v>5.231637477874756</v>
       </c>
       <c r="G35" t="n">
         <v>6.5</v>
       </c>
       <c r="H35" t="n">
-        <v>5.915430068969727</v>
+        <v>6.274822235107422</v>
       </c>
       <c r="I35" t="n">
         <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>4.94716215133667</v>
+        <v>4.847255229949951</v>
       </c>
       <c r="K35" t="n">
         <v>5.8</v>
       </c>
       <c r="L35" t="n">
-        <v>4.907550811767578</v>
+        <v>4.552416801452637</v>
       </c>
     </row>
     <row r="36">
@@ -1792,37 +1792,37 @@
         <v>6.6</v>
       </c>
       <c r="B36" t="n">
-        <v>7.138640403747559</v>
+        <v>7.411664485931396</v>
       </c>
       <c r="C36" t="n">
         <v>6.75</v>
       </c>
       <c r="D36" t="n">
-        <v>8.131999969482422</v>
+        <v>7.553601264953613</v>
       </c>
       <c r="E36" t="n">
         <v>5.5</v>
       </c>
       <c r="F36" t="n">
-        <v>6.837000846862793</v>
+        <v>6.34324836730957</v>
       </c>
       <c r="G36" t="n">
         <v>5.25</v>
       </c>
       <c r="H36" t="n">
-        <v>6.472267627716064</v>
+        <v>6.693538665771484</v>
       </c>
       <c r="I36" t="n">
         <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>5.358628749847412</v>
+        <v>4.937832355499268</v>
       </c>
       <c r="K36" t="n">
         <v>4.8</v>
       </c>
       <c r="L36" t="n">
-        <v>6.087833881378174</v>
+        <v>5.417017936706543</v>
       </c>
     </row>
     <row r="37">
@@ -1830,37 +1830,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>7.020518779754639</v>
+        <v>7.450937747955322</v>
       </c>
       <c r="C37" t="n">
         <v>7.5</v>
       </c>
       <c r="D37" t="n">
-        <v>7.782856941223145</v>
+        <v>7.15873384475708</v>
       </c>
       <c r="E37" t="n">
         <v>6.75</v>
       </c>
       <c r="F37" t="n">
-        <v>6.600962162017822</v>
+        <v>6.401279926300049</v>
       </c>
       <c r="G37" t="n">
         <v>7.5</v>
       </c>
       <c r="H37" t="n">
-        <v>6.481411457061768</v>
+        <v>6.900914669036865</v>
       </c>
       <c r="I37" t="n">
         <v>5.25</v>
       </c>
       <c r="J37" t="n">
-        <v>5.455206871032715</v>
+        <v>4.580910205841064</v>
       </c>
       <c r="K37" t="n">
         <v>4.8</v>
       </c>
       <c r="L37" t="n">
-        <v>6.681733131408691</v>
+        <v>5.984614372253418</v>
       </c>
     </row>
     <row r="38">
@@ -1868,37 +1868,37 @@
         <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>7.885555744171143</v>
+        <v>8.625436782836914</v>
       </c>
       <c r="C38" t="n">
         <v>8.25</v>
       </c>
       <c r="D38" t="n">
-        <v>8.911724090576172</v>
+        <v>8.351720809936523</v>
       </c>
       <c r="E38" t="n">
         <v>8.25</v>
       </c>
       <c r="F38" t="n">
-        <v>7.608085155487061</v>
+        <v>8.001162528991699</v>
       </c>
       <c r="G38" t="n">
         <v>8.5</v>
       </c>
       <c r="H38" t="n">
-        <v>7.228963375091553</v>
+        <v>7.752532005310059</v>
       </c>
       <c r="I38" t="n">
         <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>6.384400844573975</v>
+        <v>5.29693603515625</v>
       </c>
       <c r="K38" t="n">
         <v>6.4</v>
       </c>
       <c r="L38" t="n">
-        <v>6.662461757659912</v>
+        <v>5.888449668884277</v>
       </c>
     </row>
     <row r="39">
@@ -1906,37 +1906,37 @@
         <v>7.6</v>
       </c>
       <c r="B39" t="n">
-        <v>7.573288440704346</v>
+        <v>7.806265354156494</v>
       </c>
       <c r="C39" t="n">
         <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>8.519033432006836</v>
+        <v>8.275774955749512</v>
       </c>
       <c r="E39" t="n">
         <v>7.5</v>
       </c>
       <c r="F39" t="n">
-        <v>6.992889404296875</v>
+        <v>6.2722487449646</v>
       </c>
       <c r="G39" t="n">
         <v>7.5</v>
       </c>
       <c r="H39" t="n">
-        <v>6.926645755767822</v>
+        <v>6.837416648864746</v>
       </c>
       <c r="I39" t="n">
         <v>7.5</v>
       </c>
       <c r="J39" t="n">
-        <v>5.94517993927002</v>
+        <v>5.455821514129639</v>
       </c>
       <c r="K39" t="n">
         <v>5.2</v>
       </c>
       <c r="L39" t="n">
-        <v>4.878594398498535</v>
+        <v>4.515962600708008</v>
       </c>
     </row>
     <row r="40">
@@ -1944,37 +1944,37 @@
         <v>9</v>
       </c>
       <c r="B40" t="n">
-        <v>8.448247909545898</v>
+        <v>8.814878463745117</v>
       </c>
       <c r="C40" t="n">
         <v>8.5</v>
       </c>
       <c r="D40" t="n">
-        <v>9.112241744995117</v>
+        <v>8.43437385559082</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>8.13575553894043</v>
+        <v>8.214629173278809</v>
       </c>
       <c r="G40" t="n">
         <v>7.75</v>
       </c>
       <c r="H40" t="n">
-        <v>7.93552303314209</v>
+        <v>8.16465950012207</v>
       </c>
       <c r="I40" t="n">
         <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>7.35304594039917</v>
+        <v>6.174551963806152</v>
       </c>
       <c r="K40" t="n">
         <v>6.8</v>
       </c>
       <c r="L40" t="n">
-        <v>7.172248840332031</v>
+        <v>6.758768558502197</v>
       </c>
     </row>
     <row r="41">
@@ -1982,37 +1982,37 @@
         <v>7.2</v>
       </c>
       <c r="B41" t="n">
-        <v>6.602688312530518</v>
+        <v>6.669003963470459</v>
       </c>
       <c r="C41" t="n">
         <v>7.25</v>
       </c>
       <c r="D41" t="n">
-        <v>7.289273738861084</v>
+        <v>6.71594762802124</v>
       </c>
       <c r="E41" t="n">
         <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>6.092250823974609</v>
+        <v>5.334782123565674</v>
       </c>
       <c r="G41" t="n">
         <v>5.75</v>
       </c>
       <c r="H41" t="n">
-        <v>6.104484558105469</v>
+        <v>6.193369388580322</v>
       </c>
       <c r="I41" t="n">
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>5.009915828704834</v>
+        <v>4.706305027008057</v>
       </c>
       <c r="K41" t="n">
         <v>7.4</v>
       </c>
       <c r="L41" t="n">
-        <v>6.059029102325439</v>
+        <v>6.100512981414795</v>
       </c>
     </row>
     <row r="42">
@@ -2020,37 +2020,37 @@
         <v>8.4</v>
       </c>
       <c r="B42" t="n">
-        <v>7.353440761566162</v>
+        <v>7.682479858398438</v>
       </c>
       <c r="C42" t="n">
         <v>6.75</v>
       </c>
       <c r="D42" t="n">
-        <v>7.368444919586182</v>
+        <v>6.91636323928833</v>
       </c>
       <c r="E42" t="n">
         <v>5.75</v>
       </c>
       <c r="F42" t="n">
-        <v>6.700546264648438</v>
+        <v>6.04643726348877</v>
       </c>
       <c r="G42" t="n">
         <v>8.25</v>
       </c>
       <c r="H42" t="n">
-        <v>7.077944755554199</v>
+        <v>7.353627681732178</v>
       </c>
       <c r="I42" t="n">
         <v>7.5</v>
       </c>
       <c r="J42" t="n">
-        <v>6.120585441589355</v>
+        <v>6.646446704864502</v>
       </c>
       <c r="K42" t="n">
         <v>6.8</v>
       </c>
       <c r="L42" t="n">
-        <v>6.901507377624512</v>
+        <v>5.930568695068359</v>
       </c>
     </row>
     <row r="43">
@@ -2058,37 +2058,37 @@
         <v>7.2</v>
       </c>
       <c r="B43" t="n">
-        <v>6.802590847015381</v>
+        <v>7.190935611724854</v>
       </c>
       <c r="C43" t="n">
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>7.154398441314697</v>
+        <v>6.67522668838501</v>
       </c>
       <c r="E43" t="n">
         <v>5.25</v>
       </c>
       <c r="F43" t="n">
-        <v>6.271693229675293</v>
+        <v>5.96125316619873</v>
       </c>
       <c r="G43" t="n">
         <v>6.75</v>
       </c>
       <c r="H43" t="n">
-        <v>6.348836421966553</v>
+        <v>6.882350444793701</v>
       </c>
       <c r="I43" t="n">
         <v>3.75</v>
       </c>
       <c r="J43" t="n">
-        <v>5.211329936981201</v>
+        <v>5.072341442108154</v>
       </c>
       <c r="K43" t="n">
         <v>7.4</v>
       </c>
       <c r="L43" t="n">
-        <v>6.572474956512451</v>
+        <v>6.575161457061768</v>
       </c>
     </row>
     <row r="44">
@@ -2096,37 +2096,37 @@
         <v>9</v>
       </c>
       <c r="B44" t="n">
-        <v>8.107061386108398</v>
+        <v>8.552821159362793</v>
       </c>
       <c r="C44" t="n">
         <v>9.5</v>
       </c>
       <c r="D44" t="n">
-        <v>8.861423492431641</v>
+        <v>8.218327522277832</v>
       </c>
       <c r="E44" t="n">
         <v>7.25</v>
       </c>
       <c r="F44" t="n">
-        <v>7.655790328979492</v>
+        <v>7.719227313995361</v>
       </c>
       <c r="G44" t="n">
         <v>8.25</v>
       </c>
       <c r="H44" t="n">
-        <v>7.546609878540039</v>
+        <v>7.875578880310059</v>
       </c>
       <c r="I44" t="n">
         <v>6.5</v>
       </c>
       <c r="J44" t="n">
-        <v>6.825031280517578</v>
+        <v>6.214391231536865</v>
       </c>
       <c r="K44" t="n">
         <v>5.8</v>
       </c>
       <c r="L44" t="n">
-        <v>6.331839561462402</v>
+        <v>5.901785373687744</v>
       </c>
     </row>
     <row r="45">
@@ -2134,37 +2134,37 @@
         <v>6.6</v>
       </c>
       <c r="B45" t="n">
-        <v>7.749813079833984</v>
+        <v>8.300132751464844</v>
       </c>
       <c r="C45" t="n">
         <v>7.75</v>
       </c>
       <c r="D45" t="n">
-        <v>7.682224273681641</v>
+        <v>6.948515892028809</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>7.141180038452148</v>
+        <v>7.077082633972168</v>
       </c>
       <c r="G45" t="n">
         <v>6.25</v>
       </c>
       <c r="H45" t="n">
-        <v>7.523088932037354</v>
+        <v>7.836573600769043</v>
       </c>
       <c r="I45" t="n">
         <v>6.75</v>
       </c>
       <c r="J45" t="n">
-        <v>6.617287635803223</v>
+        <v>5.924401760101318</v>
       </c>
       <c r="K45" t="n">
         <v>6.2</v>
       </c>
       <c r="L45" t="n">
-        <v>6.889259338378906</v>
+        <v>6.171560764312744</v>
       </c>
     </row>
     <row r="46">
@@ -2172,37 +2172,37 @@
         <v>8</v>
       </c>
       <c r="B46" t="n">
-        <v>6.614412307739258</v>
+        <v>7.15196704864502</v>
       </c>
       <c r="C46" t="n">
         <v>8.5</v>
       </c>
       <c r="D46" t="n">
-        <v>6.967187881469727</v>
+        <v>6.653868198394775</v>
       </c>
       <c r="E46" t="n">
         <v>7.75</v>
       </c>
       <c r="F46" t="n">
-        <v>6.030506134033203</v>
+        <v>5.842792510986328</v>
       </c>
       <c r="G46" t="n">
         <v>7.75</v>
       </c>
       <c r="H46" t="n">
-        <v>6.134648323059082</v>
+        <v>6.578197956085205</v>
       </c>
       <c r="I46" t="n">
         <v>3.75</v>
       </c>
       <c r="J46" t="n">
-        <v>5.059214115142822</v>
+        <v>5.138564109802246</v>
       </c>
       <c r="K46" t="n">
         <v>6</v>
       </c>
       <c r="L46" t="n">
-        <v>5.809165000915527</v>
+        <v>6.031874656677246</v>
       </c>
     </row>
     <row r="47">
@@ -2210,37 +2210,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>7.360649585723877</v>
+        <v>7.94158411026001</v>
       </c>
       <c r="C47" t="n">
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>7.669469833374023</v>
+        <v>6.795178890228271</v>
       </c>
       <c r="E47" t="n">
         <v>6</v>
       </c>
       <c r="F47" t="n">
-        <v>6.924092292785645</v>
+        <v>6.94889497756958</v>
       </c>
       <c r="G47" t="n">
         <v>7.5</v>
       </c>
       <c r="H47" t="n">
-        <v>6.909151554107666</v>
+        <v>7.283754348754883</v>
       </c>
       <c r="I47" t="n">
         <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>5.881048679351807</v>
+        <v>5.262527942657471</v>
       </c>
       <c r="K47" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>7.148632049560547</v>
+        <v>6.739367485046387</v>
       </c>
     </row>
     <row r="48">
@@ -2248,37 +2248,37 @@
         <v>7.8</v>
       </c>
       <c r="B48" t="n">
-        <v>7.600146293640137</v>
+        <v>8.05488395690918</v>
       </c>
       <c r="C48" t="n">
         <v>7.25</v>
       </c>
       <c r="D48" t="n">
-        <v>8.072371482849121</v>
+        <v>7.667623996734619</v>
       </c>
       <c r="E48" t="n">
         <v>7.25</v>
       </c>
       <c r="F48" t="n">
-        <v>7.285130023956299</v>
+        <v>7.231516361236572</v>
       </c>
       <c r="G48" t="n">
         <v>7.5</v>
       </c>
       <c r="H48" t="n">
-        <v>7.198874950408936</v>
+        <v>7.263659954071045</v>
       </c>
       <c r="I48" t="n">
         <v>5.5</v>
       </c>
       <c r="J48" t="n">
-        <v>5.948305606842041</v>
+        <v>5.195600032806396</v>
       </c>
       <c r="K48" t="n">
         <v>5.4</v>
       </c>
       <c r="L48" t="n">
-        <v>5.962762355804443</v>
+        <v>5.58540678024292</v>
       </c>
     </row>
     <row r="49">
@@ -2286,37 +2286,37 @@
         <v>8.6</v>
       </c>
       <c r="B49" t="n">
-        <v>8.227076530456543</v>
+        <v>8.398725509643555</v>
       </c>
       <c r="C49" t="n">
         <v>7.75</v>
       </c>
       <c r="D49" t="n">
-        <v>8.47835636138916</v>
+        <v>7.748189449310303</v>
       </c>
       <c r="E49" t="n">
         <v>6.75</v>
       </c>
       <c r="F49" t="n">
-        <v>7.675488471984863</v>
+        <v>7.360597133636475</v>
       </c>
       <c r="G49" t="n">
         <v>7.75</v>
       </c>
       <c r="H49" t="n">
-        <v>8.00714111328125</v>
+        <v>7.918464660644531</v>
       </c>
       <c r="I49" t="n">
         <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>7.08330774307251</v>
+        <v>5.986591815948486</v>
       </c>
       <c r="K49" t="n">
         <v>5.6</v>
       </c>
       <c r="L49" t="n">
-        <v>6.054394721984863</v>
+        <v>5.709778308868408</v>
       </c>
     </row>
     <row r="50">
@@ -2324,37 +2324,37 @@
         <v>7.8</v>
       </c>
       <c r="B50" t="n">
-        <v>8.080112457275391</v>
+        <v>8.521249771118164</v>
       </c>
       <c r="C50" t="n">
         <v>7.75</v>
       </c>
       <c r="D50" t="n">
-        <v>8.358940124511719</v>
+        <v>7.817073345184326</v>
       </c>
       <c r="E50" t="n">
         <v>7.5</v>
       </c>
       <c r="F50" t="n">
-        <v>7.634424686431885</v>
+        <v>7.619759559631348</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
       </c>
       <c r="H50" t="n">
-        <v>7.592706680297852</v>
+        <v>8.030502319335938</v>
       </c>
       <c r="I50" t="n">
         <v>6.25</v>
       </c>
       <c r="J50" t="n">
-        <v>7.00614595413208</v>
+        <v>6.200858592987061</v>
       </c>
       <c r="K50" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L50" t="n">
-        <v>8.273696899414062</v>
+        <v>7.477837085723877</v>
       </c>
     </row>
     <row r="51">
@@ -2362,37 +2362,37 @@
         <v>8.4</v>
       </c>
       <c r="B51" t="n">
-        <v>7.509706020355225</v>
+        <v>7.826517105102539</v>
       </c>
       <c r="C51" t="n">
         <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>8.229352951049805</v>
+        <v>7.637566566467285</v>
       </c>
       <c r="E51" t="n">
         <v>6.25</v>
       </c>
       <c r="F51" t="n">
-        <v>7.042922019958496</v>
+        <v>6.635591506958008</v>
       </c>
       <c r="G51" t="n">
         <v>7.5</v>
       </c>
       <c r="H51" t="n">
-        <v>6.795479774475098</v>
+        <v>7.328590393066406</v>
       </c>
       <c r="I51" t="n">
         <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>5.946664333343506</v>
+        <v>6.148102283477783</v>
       </c>
       <c r="K51" t="n">
         <v>7</v>
       </c>
       <c r="L51" t="n">
-        <v>6.506110668182373</v>
+        <v>6.250245094299316</v>
       </c>
     </row>
     <row r="52">
@@ -2400,37 +2400,37 @@
         <v>4.6</v>
       </c>
       <c r="B52" t="n">
-        <v>6.440872192382812</v>
+        <v>7.119001388549805</v>
       </c>
       <c r="C52" t="n">
         <v>7.5</v>
       </c>
       <c r="D52" t="n">
-        <v>7.453311920166016</v>
+        <v>7.30377721786499</v>
       </c>
       <c r="E52" t="n">
         <v>4.5</v>
       </c>
       <c r="F52" t="n">
-        <v>5.839207649230957</v>
+        <v>5.171795845031738</v>
       </c>
       <c r="G52" t="n">
         <v>7</v>
       </c>
       <c r="H52" t="n">
-        <v>5.753317832946777</v>
+        <v>6.397603511810303</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>4.815956592559814</v>
+        <v>5.374392032623291</v>
       </c>
       <c r="K52" t="n">
         <v>3.2</v>
       </c>
       <c r="L52" t="n">
-        <v>4.815032958984375</v>
+        <v>4.558778762817383</v>
       </c>
     </row>
     <row r="53">
@@ -2438,37 +2438,37 @@
         <v>8.800000000000001</v>
       </c>
       <c r="B53" t="n">
-        <v>7.439634799957275</v>
+        <v>7.919630527496338</v>
       </c>
       <c r="C53" t="n">
         <v>6.75</v>
       </c>
       <c r="D53" t="n">
-        <v>7.822086334228516</v>
+        <v>7.562905788421631</v>
       </c>
       <c r="E53" t="n">
         <v>7.5</v>
       </c>
       <c r="F53" t="n">
-        <v>6.686079502105713</v>
+        <v>6.291118621826172</v>
       </c>
       <c r="G53" t="n">
         <v>6.75</v>
       </c>
       <c r="H53" t="n">
-        <v>6.871949195861816</v>
+        <v>7.260937690734863</v>
       </c>
       <c r="I53" t="n">
         <v>7.5</v>
       </c>
       <c r="J53" t="n">
-        <v>6.00218677520752</v>
+        <v>5.566336154937744</v>
       </c>
       <c r="K53" t="n">
         <v>5</v>
       </c>
       <c r="L53" t="n">
-        <v>5.225847721099854</v>
+        <v>4.640822410583496</v>
       </c>
     </row>
     <row r="54">
@@ -2476,37 +2476,37 @@
         <v>7.6</v>
       </c>
       <c r="B54" t="n">
-        <v>6.707248687744141</v>
+        <v>7.129404544830322</v>
       </c>
       <c r="C54" t="n">
         <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>7.351178169250488</v>
+        <v>6.8351731300354</v>
       </c>
       <c r="E54" t="n">
         <v>5.75</v>
       </c>
       <c r="F54" t="n">
-        <v>6.172709465026855</v>
+        <v>5.566332817077637</v>
       </c>
       <c r="G54" t="n">
         <v>7.75</v>
       </c>
       <c r="H54" t="n">
-        <v>6.132403373718262</v>
+        <v>6.580592155456543</v>
       </c>
       <c r="I54" t="n">
         <v>3.5</v>
       </c>
       <c r="J54" t="n">
-        <v>5.009423732757568</v>
+        <v>4.843445301055908</v>
       </c>
       <c r="K54" t="n">
         <v>7.2</v>
       </c>
       <c r="L54" t="n">
-        <v>5.464144229888916</v>
+        <v>5.282955646514893</v>
       </c>
     </row>
     <row r="55">
@@ -2514,37 +2514,37 @@
         <v>8.4</v>
       </c>
       <c r="B55" t="n">
-        <v>7.700407981872559</v>
+        <v>8.226907730102539</v>
       </c>
       <c r="C55" t="n">
         <v>9.5</v>
       </c>
       <c r="D55" t="n">
-        <v>8.958986282348633</v>
+        <v>8.484601974487305</v>
       </c>
       <c r="E55" t="n">
         <v>7.5</v>
       </c>
       <c r="F55" t="n">
-        <v>7.535699844360352</v>
+        <v>7.660160064697266</v>
       </c>
       <c r="G55" t="n">
         <v>7.75</v>
       </c>
       <c r="H55" t="n">
-        <v>6.880168914794922</v>
+        <v>7.578631401062012</v>
       </c>
       <c r="I55" t="n">
         <v>7</v>
       </c>
       <c r="J55" t="n">
-        <v>6.148968696594238</v>
+        <v>5.451854228973389</v>
       </c>
       <c r="K55" t="n">
         <v>8</v>
       </c>
       <c r="L55" t="n">
-        <v>7.249905109405518</v>
+        <v>6.367569446563721</v>
       </c>
     </row>
     <row r="56">
@@ -2552,37 +2552,37 @@
         <v>6</v>
       </c>
       <c r="B56" t="n">
-        <v>6.189724922180176</v>
+        <v>6.746710300445557</v>
       </c>
       <c r="C56" t="n">
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>7.020857334136963</v>
+        <v>6.505619049072266</v>
       </c>
       <c r="E56" t="n">
         <v>4.75</v>
       </c>
       <c r="F56" t="n">
-        <v>5.551349639892578</v>
+        <v>5.360849857330322</v>
       </c>
       <c r="G56" t="n">
         <v>6.5</v>
       </c>
       <c r="H56" t="n">
-        <v>5.512254238128662</v>
+        <v>6.06002950668335</v>
       </c>
       <c r="I56" t="n">
         <v>5.25</v>
       </c>
       <c r="J56" t="n">
-        <v>4.526583671569824</v>
+        <v>4.385526180267334</v>
       </c>
       <c r="K56" t="n">
         <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>4.442833423614502</v>
+        <v>4.594614028930664</v>
       </c>
     </row>
     <row r="57">
@@ -2590,37 +2590,37 @@
         <v>7.8</v>
       </c>
       <c r="B57" t="n">
-        <v>6.893903255462646</v>
+        <v>7.646710872650146</v>
       </c>
       <c r="C57" t="n">
         <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>7.542627334594727</v>
+        <v>7.000685214996338</v>
       </c>
       <c r="E57" t="n">
         <v>6.75</v>
       </c>
       <c r="F57" t="n">
-        <v>6.323075294494629</v>
+        <v>6.620978832244873</v>
       </c>
       <c r="G57" t="n">
         <v>7.5</v>
       </c>
       <c r="H57" t="n">
-        <v>6.321642398834229</v>
+        <v>6.929399490356445</v>
       </c>
       <c r="I57" t="n">
         <v>6.75</v>
       </c>
       <c r="J57" t="n">
-        <v>5.278913974761963</v>
+        <v>4.705392837524414</v>
       </c>
       <c r="K57" t="n">
         <v>5</v>
       </c>
       <c r="L57" t="n">
-        <v>5.382692337036133</v>
+        <v>5.491735458374023</v>
       </c>
     </row>
     <row r="58">
@@ -2628,37 +2628,37 @@
         <v>8.6</v>
       </c>
       <c r="B58" t="n">
-        <v>8.188071250915527</v>
+        <v>8.855945587158203</v>
       </c>
       <c r="C58" t="n">
         <v>7.75</v>
       </c>
       <c r="D58" t="n">
-        <v>8.751168251037598</v>
+        <v>8.212162971496582</v>
       </c>
       <c r="E58" t="n">
         <v>8.25</v>
       </c>
       <c r="F58" t="n">
-        <v>8.202259063720703</v>
+        <v>8.24342155456543</v>
       </c>
       <c r="G58" t="n">
         <v>8.75</v>
       </c>
       <c r="H58" t="n">
-        <v>7.72697639465332</v>
+        <v>8.302885055541992</v>
       </c>
       <c r="I58" t="n">
         <v>7</v>
       </c>
       <c r="J58" t="n">
-        <v>6.867149829864502</v>
+        <v>6.101729869842529</v>
       </c>
       <c r="K58" t="n">
         <v>8.4</v>
       </c>
       <c r="L58" t="n">
-        <v>8.104631423950195</v>
+        <v>6.926557540893555</v>
       </c>
     </row>
     <row r="59">
@@ -2666,37 +2666,37 @@
         <v>8.6</v>
       </c>
       <c r="B59" t="n">
-        <v>7.987658977508545</v>
+        <v>8.64103889465332</v>
       </c>
       <c r="C59" t="n">
         <v>8.25</v>
       </c>
       <c r="D59" t="n">
-        <v>8.552724838256836</v>
+        <v>8.034981727600098</v>
       </c>
       <c r="E59" t="n">
         <v>8.25</v>
       </c>
       <c r="F59" t="n">
-        <v>8.267433166503906</v>
+        <v>8.134922981262207</v>
       </c>
       <c r="G59" t="n">
         <v>8.25</v>
       </c>
       <c r="H59" t="n">
-        <v>7.799664497375488</v>
+        <v>8.177105903625488</v>
       </c>
       <c r="I59" t="n">
         <v>7</v>
       </c>
       <c r="J59" t="n">
-        <v>6.705026626586914</v>
+        <v>5.751770496368408</v>
       </c>
       <c r="K59" t="n">
         <v>7.4</v>
       </c>
       <c r="L59" t="n">
-        <v>8.547130584716797</v>
+        <v>7.409085273742676</v>
       </c>
     </row>
     <row r="60">
@@ -2704,37 +2704,37 @@
         <v>7.2</v>
       </c>
       <c r="B60" t="n">
-        <v>6.934229373931885</v>
+        <v>7.484960079193115</v>
       </c>
       <c r="C60" t="n">
         <v>6.25</v>
       </c>
       <c r="D60" t="n">
-        <v>7.571147918701172</v>
+        <v>7.131712436676025</v>
       </c>
       <c r="E60" t="n">
         <v>5.75</v>
       </c>
       <c r="F60" t="n">
-        <v>6.240060329437256</v>
+        <v>5.704475402832031</v>
       </c>
       <c r="G60" t="n">
         <v>7</v>
       </c>
       <c r="H60" t="n">
-        <v>6.497848510742188</v>
+        <v>7.226638793945312</v>
       </c>
       <c r="I60" t="n">
         <v>5.25</v>
       </c>
       <c r="J60" t="n">
-        <v>5.616557121276855</v>
+        <v>5.80454683303833</v>
       </c>
       <c r="K60" t="n">
         <v>6.2</v>
       </c>
       <c r="L60" t="n">
-        <v>5.551994800567627</v>
+        <v>5.326168060302734</v>
       </c>
     </row>
     <row r="61">
@@ -2742,37 +2742,37 @@
         <v>7.4</v>
       </c>
       <c r="B61" t="n">
-        <v>6.993667602539062</v>
+        <v>7.242800712585449</v>
       </c>
       <c r="C61" t="n">
         <v>8.5</v>
       </c>
       <c r="D61" t="n">
-        <v>7.821253776550293</v>
+        <v>7.304914951324463</v>
       </c>
       <c r="E61" t="n">
         <v>4.5</v>
       </c>
       <c r="F61" t="n">
-        <v>6.294023513793945</v>
+        <v>5.532867431640625</v>
       </c>
       <c r="G61" t="n">
         <v>8.25</v>
       </c>
       <c r="H61" t="n">
-        <v>6.356154441833496</v>
+        <v>6.564404487609863</v>
       </c>
       <c r="I61" t="n">
         <v>7.25</v>
       </c>
       <c r="J61" t="n">
-        <v>5.467257499694824</v>
+        <v>5.498175144195557</v>
       </c>
       <c r="K61" t="n">
         <v>4.6</v>
       </c>
       <c r="L61" t="n">
-        <v>4.859715938568115</v>
+        <v>4.480834007263184</v>
       </c>
     </row>
     <row r="62">
@@ -2780,37 +2780,37 @@
         <v>7.6</v>
       </c>
       <c r="B62" t="n">
-        <v>7.433390140533447</v>
+        <v>7.796838760375977</v>
       </c>
       <c r="C62" t="n">
         <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>8.250289916992188</v>
+        <v>7.918933391571045</v>
       </c>
       <c r="E62" t="n">
         <v>7.5</v>
       </c>
       <c r="F62" t="n">
-        <v>7.001683712005615</v>
+        <v>6.626201629638672</v>
       </c>
       <c r="G62" t="n">
         <v>7.5</v>
       </c>
       <c r="H62" t="n">
-        <v>6.878561973571777</v>
+        <v>7.223772525787354</v>
       </c>
       <c r="I62" t="n">
         <v>7.5</v>
       </c>
       <c r="J62" t="n">
-        <v>6.00019359588623</v>
+        <v>6.013787746429443</v>
       </c>
       <c r="K62" t="n">
         <v>5.2</v>
       </c>
       <c r="L62" t="n">
-        <v>6.348803043365479</v>
+        <v>5.638765811920166</v>
       </c>
     </row>
     <row r="63">
@@ -2818,37 +2818,37 @@
         <v>7.6</v>
       </c>
       <c r="B63" t="n">
-        <v>7.532903671264648</v>
+        <v>7.979450702667236</v>
       </c>
       <c r="C63" t="n">
         <v>8.25</v>
       </c>
       <c r="D63" t="n">
-        <v>8.029758453369141</v>
+        <v>7.402157306671143</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
       </c>
       <c r="F63" t="n">
-        <v>7.109048843383789</v>
+        <v>6.882497787475586</v>
       </c>
       <c r="G63" t="n">
         <v>7.75</v>
       </c>
       <c r="H63" t="n">
-        <v>7.049633979797363</v>
+        <v>7.546627044677734</v>
       </c>
       <c r="I63" t="n">
         <v>5.5</v>
       </c>
       <c r="J63" t="n">
-        <v>6.168599605560303</v>
+        <v>6.053736209869385</v>
       </c>
       <c r="K63" t="n">
         <v>7.4</v>
       </c>
       <c r="L63" t="n">
-        <v>7.481575012207031</v>
+        <v>7.229357719421387</v>
       </c>
     </row>
     <row r="64">
@@ -2856,37 +2856,37 @@
         <v>7.4</v>
       </c>
       <c r="B64" t="n">
-        <v>7.546095371246338</v>
+        <v>7.755846977233887</v>
       </c>
       <c r="C64" t="n">
         <v>6.25</v>
       </c>
       <c r="D64" t="n">
-        <v>8.468494415283203</v>
+        <v>7.757835865020752</v>
       </c>
       <c r="E64" t="n">
         <v>6.25</v>
       </c>
       <c r="F64" t="n">
-        <v>7.130933284759521</v>
+        <v>6.720773220062256</v>
       </c>
       <c r="G64" t="n">
         <v>8</v>
       </c>
       <c r="H64" t="n">
-        <v>7.087494850158691</v>
+        <v>7.642871856689453</v>
       </c>
       <c r="I64" t="n">
         <v>6</v>
       </c>
       <c r="J64" t="n">
-        <v>6.356728553771973</v>
+        <v>5.658026695251465</v>
       </c>
       <c r="K64" t="n">
         <v>6.4</v>
       </c>
       <c r="L64" t="n">
-        <v>7.689723491668701</v>
+        <v>6.656674385070801</v>
       </c>
     </row>
     <row r="65">
@@ -2894,37 +2894,37 @@
         <v>6.6</v>
       </c>
       <c r="B65" t="n">
-        <v>6.968198299407959</v>
+        <v>7.259077548980713</v>
       </c>
       <c r="C65" t="n">
         <v>7.25</v>
       </c>
       <c r="D65" t="n">
-        <v>7.701898574829102</v>
+        <v>7.363428115844727</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>6.496500968933105</v>
+        <v>5.885808944702148</v>
       </c>
       <c r="G65" t="n">
         <v>7</v>
       </c>
       <c r="H65" t="n">
-        <v>6.404173374176025</v>
+        <v>6.549985885620117</v>
       </c>
       <c r="I65" t="n">
         <v>5</v>
       </c>
       <c r="J65" t="n">
-        <v>5.432495594024658</v>
+        <v>5.366577625274658</v>
       </c>
       <c r="K65" t="n">
         <v>4.8</v>
       </c>
       <c r="L65" t="n">
-        <v>6.821010589599609</v>
+        <v>6.608119964599609</v>
       </c>
     </row>
     <row r="66">
@@ -2932,37 +2932,37 @@
         <v>7.8</v>
       </c>
       <c r="B66" t="n">
-        <v>7.44974946975708</v>
+        <v>7.931739330291748</v>
       </c>
       <c r="C66" t="n">
         <v>9.25</v>
       </c>
       <c r="D66" t="n">
-        <v>8.509252548217773</v>
+        <v>8.065883636474609</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
       </c>
       <c r="F66" t="n">
-        <v>7.300368309020996</v>
+        <v>7.412434577941895</v>
       </c>
       <c r="G66" t="n">
         <v>7.5</v>
       </c>
       <c r="H66" t="n">
-        <v>6.211128711700439</v>
+        <v>7.164750576019287</v>
       </c>
       <c r="I66" t="n">
         <v>6.25</v>
       </c>
       <c r="J66" t="n">
-        <v>5.633028984069824</v>
+        <v>4.959272861480713</v>
       </c>
       <c r="K66" t="n">
         <v>8.6</v>
       </c>
       <c r="L66" t="n">
-        <v>8.890690803527832</v>
+        <v>7.754214763641357</v>
       </c>
     </row>
     <row r="67">
@@ -2970,37 +2970,37 @@
         <v>7.6</v>
       </c>
       <c r="B67" t="n">
-        <v>6.313951969146729</v>
+        <v>7.156197547912598</v>
       </c>
       <c r="C67" t="n">
         <v>5.75</v>
       </c>
       <c r="D67" t="n">
-        <v>7.274770736694336</v>
+        <v>6.66966438293457</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>5.777738094329834</v>
+        <v>5.086333274841309</v>
       </c>
       <c r="G67" t="n">
         <v>5.25</v>
       </c>
       <c r="H67" t="n">
-        <v>5.605888366699219</v>
+        <v>6.293149948120117</v>
       </c>
       <c r="I67" t="n">
         <v>3.5</v>
       </c>
       <c r="J67" t="n">
-        <v>4.577880859375</v>
+        <v>3.973208665847778</v>
       </c>
       <c r="K67" t="n">
         <v>4.2</v>
       </c>
       <c r="L67" t="n">
-        <v>4.770258903503418</v>
+        <v>4.380451679229736</v>
       </c>
     </row>
     <row r="68">
@@ -3008,37 +3008,37 @@
         <v>7.8</v>
       </c>
       <c r="B68" t="n">
-        <v>7.547623157501221</v>
+        <v>8.115157127380371</v>
       </c>
       <c r="C68" t="n">
         <v>7.25</v>
       </c>
       <c r="D68" t="n">
-        <v>7.722891807556152</v>
+        <v>7.132742404937744</v>
       </c>
       <c r="E68" t="n">
         <v>6.5</v>
       </c>
       <c r="F68" t="n">
-        <v>7.089499473571777</v>
+        <v>7.183685302734375</v>
       </c>
       <c r="G68" t="n">
         <v>7.5</v>
       </c>
       <c r="H68" t="n">
-        <v>7.108262062072754</v>
+        <v>7.504464149475098</v>
       </c>
       <c r="I68" t="n">
         <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>6.13827657699585</v>
+        <v>5.6062331199646</v>
       </c>
       <c r="K68" t="n">
         <v>6.8</v>
       </c>
       <c r="L68" t="n">
-        <v>7.093583106994629</v>
+        <v>6.394939422607422</v>
       </c>
     </row>
     <row r="69">
@@ -3046,37 +3046,37 @@
         <v>7.4</v>
       </c>
       <c r="B69" t="n">
-        <v>6.560235500335693</v>
+        <v>6.95361328125</v>
       </c>
       <c r="C69" t="n">
         <v>7.25</v>
       </c>
       <c r="D69" t="n">
-        <v>7.190346717834473</v>
+        <v>6.33339262008667</v>
       </c>
       <c r="E69" t="n">
         <v>4.5</v>
       </c>
       <c r="F69" t="n">
-        <v>5.980377197265625</v>
+        <v>5.445131301879883</v>
       </c>
       <c r="G69" t="n">
         <v>6.25</v>
       </c>
       <c r="H69" t="n">
-        <v>5.993789672851562</v>
+        <v>6.466211318969727</v>
       </c>
       <c r="I69" t="n">
         <v>4.25</v>
       </c>
       <c r="J69" t="n">
-        <v>4.923908233642578</v>
+        <v>5.033066749572754</v>
       </c>
       <c r="K69" t="n">
         <v>5.6</v>
       </c>
       <c r="L69" t="n">
-        <v>6.436528205871582</v>
+        <v>6.351366519927979</v>
       </c>
     </row>
     <row r="70">
@@ -3084,37 +3084,37 @@
         <v>8.4</v>
       </c>
       <c r="B70" t="n">
-        <v>7.07419490814209</v>
+        <v>7.640227794647217</v>
       </c>
       <c r="C70" t="n">
         <v>7.5</v>
       </c>
       <c r="D70" t="n">
-        <v>7.89340877532959</v>
+        <v>7.620574474334717</v>
       </c>
       <c r="E70" t="n">
         <v>6.25</v>
       </c>
       <c r="F70" t="n">
-        <v>6.495771884918213</v>
+        <v>6.457978248596191</v>
       </c>
       <c r="G70" t="n">
         <v>7.5</v>
       </c>
       <c r="H70" t="n">
-        <v>6.466772556304932</v>
+        <v>6.763078212738037</v>
       </c>
       <c r="I70" t="n">
         <v>5</v>
       </c>
       <c r="J70" t="n">
-        <v>5.443253040313721</v>
+        <v>4.62246561050415</v>
       </c>
       <c r="K70" t="n">
         <v>5.2</v>
       </c>
       <c r="L70" t="n">
-        <v>5.12522554397583</v>
+        <v>4.769268989562988</v>
       </c>
     </row>
     <row r="71">
@@ -3122,37 +3122,37 @@
         <v>7.8</v>
       </c>
       <c r="B71" t="n">
-        <v>7.573288440704346</v>
+        <v>7.806265354156494</v>
       </c>
       <c r="C71" t="n">
         <v>8.5</v>
       </c>
       <c r="D71" t="n">
-        <v>8.519033432006836</v>
+        <v>8.275774955749512</v>
       </c>
       <c r="E71" t="n">
         <v>7.5</v>
       </c>
       <c r="F71" t="n">
-        <v>6.992889404296875</v>
+        <v>6.2722487449646</v>
       </c>
       <c r="G71" t="n">
         <v>8.5</v>
       </c>
       <c r="H71" t="n">
-        <v>6.926645755767822</v>
+        <v>6.837416648864746</v>
       </c>
       <c r="I71" t="n">
         <v>6.25</v>
       </c>
       <c r="J71" t="n">
-        <v>5.94517993927002</v>
+        <v>5.455821514129639</v>
       </c>
       <c r="K71" t="n">
         <v>6</v>
       </c>
       <c r="L71" t="n">
-        <v>4.878594398498535</v>
+        <v>4.515962600708008</v>
       </c>
     </row>
     <row r="72">
@@ -3160,37 +3160,37 @@
         <v>6</v>
       </c>
       <c r="B72" t="n">
-        <v>6.673856735229492</v>
+        <v>6.967820644378662</v>
       </c>
       <c r="C72" t="n">
         <v>6.25</v>
       </c>
       <c r="D72" t="n">
-        <v>7.326184749603271</v>
+        <v>6.69730281829834</v>
       </c>
       <c r="E72" t="n">
         <v>4.75</v>
       </c>
       <c r="F72" t="n">
-        <v>6.198930740356445</v>
+        <v>5.735086917877197</v>
       </c>
       <c r="G72" t="n">
         <v>3.75</v>
       </c>
       <c r="H72" t="n">
-        <v>6.001419067382812</v>
+        <v>6.387846946716309</v>
       </c>
       <c r="I72" t="n">
         <v>5.25</v>
       </c>
       <c r="J72" t="n">
-        <v>4.926748752593994</v>
+        <v>4.419198513031006</v>
       </c>
       <c r="K72" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="L72" t="n">
-        <v>7.001832962036133</v>
+        <v>6.655695915222168</v>
       </c>
     </row>
     <row r="73">
@@ -3198,37 +3198,37 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>7.216282367706299</v>
+        <v>7.525012969970703</v>
       </c>
       <c r="C73" t="n">
         <v>8.5</v>
       </c>
       <c r="D73" t="n">
-        <v>8.115666389465332</v>
+        <v>7.292644023895264</v>
       </c>
       <c r="E73" t="n">
         <v>6.5</v>
       </c>
       <c r="F73" t="n">
-        <v>6.814705848693848</v>
+        <v>6.699174880981445</v>
       </c>
       <c r="G73" t="n">
         <v>6.5</v>
       </c>
       <c r="H73" t="n">
-        <v>6.608798503875732</v>
+        <v>6.838784217834473</v>
       </c>
       <c r="I73" t="n">
         <v>5.5</v>
       </c>
       <c r="J73" t="n">
-        <v>5.536849498748779</v>
+        <v>4.66582202911377</v>
       </c>
       <c r="K73" t="n">
         <v>4.6</v>
       </c>
       <c r="L73" t="n">
-        <v>5.913688659667969</v>
+        <v>5.660482406616211</v>
       </c>
     </row>
     <row r="74">
@@ -3236,37 +3236,37 @@
         <v>7</v>
       </c>
       <c r="B74" t="n">
-        <v>7.060506820678711</v>
+        <v>7.566303730010986</v>
       </c>
       <c r="C74" t="n">
         <v>7.5</v>
       </c>
       <c r="D74" t="n">
-        <v>7.583210945129395</v>
+        <v>6.934024333953857</v>
       </c>
       <c r="E74" t="n">
         <v>6.75</v>
       </c>
       <c r="F74" t="n">
-        <v>6.819591999053955</v>
+        <v>6.626898765563965</v>
       </c>
       <c r="G74" t="n">
         <v>7.5</v>
       </c>
       <c r="H74" t="n">
-        <v>6.386374950408936</v>
+        <v>6.890563488006592</v>
       </c>
       <c r="I74" t="n">
         <v>6.25</v>
       </c>
       <c r="J74" t="n">
-        <v>5.221132278442383</v>
+        <v>4.782983303070068</v>
       </c>
       <c r="K74" t="n">
         <v>6.8</v>
       </c>
       <c r="L74" t="n">
-        <v>7.380268573760986</v>
+        <v>6.493093967437744</v>
       </c>
     </row>
     <row r="75">
@@ -3274,37 +3274,37 @@
         <v>7.4</v>
       </c>
       <c r="B75" t="n">
-        <v>7.245052814483643</v>
+        <v>7.773093700408936</v>
       </c>
       <c r="C75" t="n">
         <v>7.5</v>
       </c>
       <c r="D75" t="n">
-        <v>7.977248191833496</v>
+        <v>7.084635257720947</v>
       </c>
       <c r="E75" t="n">
         <v>5.75</v>
       </c>
       <c r="F75" t="n">
-        <v>6.768632888793945</v>
+        <v>6.763698101043701</v>
       </c>
       <c r="G75" t="n">
         <v>7.75</v>
       </c>
       <c r="H75" t="n">
-        <v>6.677726745605469</v>
+        <v>7.134882926940918</v>
       </c>
       <c r="I75" t="n">
         <v>6.25</v>
       </c>
       <c r="J75" t="n">
-        <v>5.700511932373047</v>
+        <v>5.074550151824951</v>
       </c>
       <c r="K75" t="n">
         <v>8.6</v>
       </c>
       <c r="L75" t="n">
-        <v>6.426315307617188</v>
+        <v>6.033588409423828</v>
       </c>
     </row>
     <row r="76">
@@ -3312,37 +3312,37 @@
         <v>8.6</v>
       </c>
       <c r="B76" t="n">
-        <v>8.135855674743652</v>
+        <v>8.598039627075195</v>
       </c>
       <c r="C76" t="n">
         <v>7.75</v>
       </c>
       <c r="D76" t="n">
-        <v>8.106733322143555</v>
+        <v>7.639785766601562</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>7.731241703033447</v>
+        <v>7.627642154693604</v>
       </c>
       <c r="G76" t="n">
         <v>8.5</v>
       </c>
       <c r="H76" t="n">
-        <v>7.853868007659912</v>
+        <v>8.044203758239746</v>
       </c>
       <c r="I76" t="n">
         <v>7.25</v>
       </c>
       <c r="J76" t="n">
-        <v>7.111167430877686</v>
+        <v>6.299493312835693</v>
       </c>
       <c r="K76" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L76" t="n">
-        <v>8.127385139465332</v>
+        <v>7.852786064147949</v>
       </c>
     </row>
     <row r="77">
@@ -3350,37 +3350,37 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>6.307060718536377</v>
+        <v>6.909545421600342</v>
       </c>
       <c r="C77" t="n">
         <v>8.5</v>
       </c>
       <c r="D77" t="n">
-        <v>7.224139213562012</v>
+        <v>6.366891860961914</v>
       </c>
       <c r="E77" t="n">
         <v>6.5</v>
       </c>
       <c r="F77" t="n">
-        <v>5.758852958679199</v>
+        <v>5.043941020965576</v>
       </c>
       <c r="G77" t="n">
         <v>6.5</v>
       </c>
       <c r="H77" t="n">
-        <v>5.681487083435059</v>
+        <v>6.145024299621582</v>
       </c>
       <c r="I77" t="n">
         <v>5.5</v>
       </c>
       <c r="J77" t="n">
-        <v>4.605984210968018</v>
+        <v>4.144981384277344</v>
       </c>
       <c r="K77" t="n">
         <v>4.6</v>
       </c>
       <c r="L77" t="n">
-        <v>4.552126407623291</v>
+        <v>4.376417636871338</v>
       </c>
     </row>
     <row r="78">
@@ -3388,37 +3388,37 @@
         <v>7.8</v>
       </c>
       <c r="B78" t="n">
-        <v>7.574650764465332</v>
+        <v>8.280960083007812</v>
       </c>
       <c r="C78" t="n">
         <v>7.75</v>
       </c>
       <c r="D78" t="n">
-        <v>7.869488716125488</v>
+        <v>7.476271152496338</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>7.19786548614502</v>
+        <v>7.151237010955811</v>
       </c>
       <c r="G78" t="n">
         <v>8.25</v>
       </c>
       <c r="H78" t="n">
-        <v>7.313282489776611</v>
+        <v>7.636371612548828</v>
       </c>
       <c r="I78" t="n">
         <v>6</v>
       </c>
       <c r="J78" t="n">
-        <v>6.098630428314209</v>
+        <v>5.516490936279297</v>
       </c>
       <c r="K78" t="n">
         <v>6.2</v>
       </c>
       <c r="L78" t="n">
-        <v>6.078689098358154</v>
+        <v>5.332467079162598</v>
       </c>
     </row>
     <row r="79">
@@ -3426,37 +3426,37 @@
         <v>8.6</v>
       </c>
       <c r="B79" t="n">
-        <v>8.20860481262207</v>
+        <v>8.77407169342041</v>
       </c>
       <c r="C79" t="n">
         <v>7.25</v>
       </c>
       <c r="D79" t="n">
-        <v>8.209877014160156</v>
+        <v>7.663079738616943</v>
       </c>
       <c r="E79" t="n">
         <v>7.75</v>
       </c>
       <c r="F79" t="n">
-        <v>7.636414051055908</v>
+        <v>8.029826164245605</v>
       </c>
       <c r="G79" t="n">
         <v>8.25</v>
       </c>
       <c r="H79" t="n">
-        <v>7.848849773406982</v>
+        <v>8.133111000061035</v>
       </c>
       <c r="I79" t="n">
         <v>5.75</v>
       </c>
       <c r="J79" t="n">
-        <v>7.222623348236084</v>
+        <v>5.768377780914307</v>
       </c>
       <c r="K79" t="n">
         <v>6.8</v>
       </c>
       <c r="L79" t="n">
-        <v>7.906861305236816</v>
+        <v>7.286948204040527</v>
       </c>
     </row>
     <row r="80">
@@ -3464,37 +3464,37 @@
         <v>5.6</v>
       </c>
       <c r="B80" t="n">
-        <v>6.611368179321289</v>
+        <v>6.642122268676758</v>
       </c>
       <c r="C80" t="n">
         <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>7.61522912979126</v>
+        <v>7.234349250793457</v>
       </c>
       <c r="E80" t="n">
         <v>4.5</v>
       </c>
       <c r="F80" t="n">
-        <v>5.923028469085693</v>
+        <v>4.296267032623291</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
       </c>
       <c r="H80" t="n">
-        <v>5.9422926902771</v>
+        <v>5.60756254196167</v>
       </c>
       <c r="I80" t="n">
         <v>7.25</v>
       </c>
       <c r="J80" t="n">
-        <v>5.037090301513672</v>
+        <v>5.148536205291748</v>
       </c>
       <c r="K80" t="n">
         <v>4.6</v>
       </c>
       <c r="L80" t="n">
-        <v>4.541269302368164</v>
+        <v>3.97539234161377</v>
       </c>
     </row>
     <row r="81">
@@ -3502,37 +3502,37 @@
         <v>6.6</v>
       </c>
       <c r="B81" t="n">
-        <v>7.223645687103271</v>
+        <v>8.055285453796387</v>
       </c>
       <c r="C81" t="n">
         <v>7.75</v>
       </c>
       <c r="D81" t="n">
-        <v>7.592974185943604</v>
+        <v>7.252442836761475</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
       </c>
       <c r="F81" t="n">
-        <v>6.524056434631348</v>
+        <v>6.482804298400879</v>
       </c>
       <c r="G81" t="n">
         <v>5.25</v>
       </c>
       <c r="H81" t="n">
-        <v>6.640248775482178</v>
+        <v>7.051577568054199</v>
       </c>
       <c r="I81" t="n">
         <v>5.5</v>
       </c>
       <c r="J81" t="n">
-        <v>5.624463558197021</v>
+        <v>5.193886756896973</v>
       </c>
       <c r="K81" t="n">
         <v>4.6</v>
       </c>
       <c r="L81" t="n">
-        <v>4.784953117370605</v>
+        <v>4.302562236785889</v>
       </c>
     </row>
     <row r="82">
@@ -3540,37 +3540,37 @@
         <v>7</v>
       </c>
       <c r="B82" t="n">
-        <v>7.298608779907227</v>
+        <v>7.651881217956543</v>
       </c>
       <c r="C82" t="n">
         <v>8.5</v>
       </c>
       <c r="D82" t="n">
-        <v>8.412705421447754</v>
+        <v>7.71567964553833</v>
       </c>
       <c r="E82" t="n">
         <v>6.5</v>
       </c>
       <c r="F82" t="n">
-        <v>6.93123722076416</v>
+        <v>6.297039031982422</v>
       </c>
       <c r="G82" t="n">
         <v>8</v>
       </c>
       <c r="H82" t="n">
-        <v>6.583194732666016</v>
+        <v>7.04381799697876</v>
       </c>
       <c r="I82" t="n">
         <v>6.75</v>
       </c>
       <c r="J82" t="n">
-        <v>5.899598598480225</v>
+        <v>5.861557483673096</v>
       </c>
       <c r="K82" t="n">
         <v>8.4</v>
       </c>
       <c r="L82" t="n">
-        <v>7.652986526489258</v>
+        <v>7.337143898010254</v>
       </c>
     </row>
     <row r="83">
@@ -3578,37 +3578,37 @@
         <v>6.8</v>
       </c>
       <c r="B83" t="n">
-        <v>6.529321670532227</v>
+        <v>6.846999645233154</v>
       </c>
       <c r="C83" t="n">
         <v>5.5</v>
       </c>
       <c r="D83" t="n">
-        <v>7.084095478057861</v>
+        <v>6.246854305267334</v>
       </c>
       <c r="E83" t="n">
         <v>4.5</v>
       </c>
       <c r="F83" t="n">
-        <v>6.019152641296387</v>
+        <v>5.504982948303223</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>5.821982383728027</v>
+        <v>5.932002067565918</v>
       </c>
       <c r="I83" t="n">
         <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>4.71596622467041</v>
+        <v>4.752709865570068</v>
       </c>
       <c r="K83" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L83" t="n">
-        <v>6.528741836547852</v>
+        <v>6.997433185577393</v>
       </c>
     </row>
     <row r="84">
@@ -3616,37 +3616,37 @@
         <v>7.6</v>
       </c>
       <c r="B84" t="n">
-        <v>7.748071670532227</v>
+        <v>8.181288719177246</v>
       </c>
       <c r="C84" t="n">
         <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>8.670387268066406</v>
+        <v>7.848267078399658</v>
       </c>
       <c r="E84" t="n">
         <v>8.75</v>
       </c>
       <c r="F84" t="n">
-        <v>7.40034818649292</v>
+        <v>7.569042205810547</v>
       </c>
       <c r="G84" t="n">
         <v>7.25</v>
       </c>
       <c r="H84" t="n">
-        <v>6.506453514099121</v>
+        <v>7.337041854858398</v>
       </c>
       <c r="I84" t="n">
         <v>6.5</v>
       </c>
       <c r="J84" t="n">
-        <v>5.986265182495117</v>
+        <v>5.03678035736084</v>
       </c>
       <c r="K84" t="n">
         <v>8.4</v>
       </c>
       <c r="L84" t="n">
-        <v>7.85951566696167</v>
+        <v>6.821465492248535</v>
       </c>
     </row>
     <row r="85">
@@ -3654,37 +3654,37 @@
         <v>7</v>
       </c>
       <c r="B85" t="n">
-        <v>6.34202766418457</v>
+        <v>6.744333267211914</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7.143126964569092</v>
+        <v>6.476171970367432</v>
       </c>
       <c r="E85" t="n">
         <v>5.5</v>
       </c>
       <c r="F85" t="n">
-        <v>5.718720436096191</v>
+        <v>5.179632186889648</v>
       </c>
       <c r="G85" t="n">
         <v>7.5</v>
       </c>
       <c r="H85" t="n">
-        <v>5.647674083709717</v>
+        <v>5.658768653869629</v>
       </c>
       <c r="I85" t="n">
         <v>3.75</v>
       </c>
       <c r="J85" t="n">
-        <v>4.626559257507324</v>
+        <v>4.265886306762695</v>
       </c>
       <c r="K85" t="n">
         <v>5</v>
       </c>
       <c r="L85" t="n">
-        <v>4.5149245262146</v>
+        <v>4.173860549926758</v>
       </c>
     </row>
     <row r="86">
@@ -3692,37 +3692,37 @@
         <v>8.4</v>
       </c>
       <c r="B86" t="n">
-        <v>7.977372646331787</v>
+        <v>8.361747741699219</v>
       </c>
       <c r="C86" t="n">
         <v>7.25</v>
       </c>
       <c r="D86" t="n">
-        <v>8.309578895568848</v>
+        <v>8.143915176391602</v>
       </c>
       <c r="E86" t="n">
         <v>8.25</v>
       </c>
       <c r="F86" t="n">
-        <v>7.506644725799561</v>
+        <v>7.696229457855225</v>
       </c>
       <c r="G86" t="n">
         <v>8.5</v>
       </c>
       <c r="H86" t="n">
-        <v>7.630447387695312</v>
+        <v>7.794710159301758</v>
       </c>
       <c r="I86" t="n">
         <v>7</v>
       </c>
       <c r="J86" t="n">
-        <v>6.860945701599121</v>
+        <v>5.881853580474854</v>
       </c>
       <c r="K86" t="n">
         <v>6.4</v>
       </c>
       <c r="L86" t="n">
-        <v>7.107742309570312</v>
+        <v>6.380668163299561</v>
       </c>
     </row>
   </sheetData>
